--- a/Meta Analysis/Meta Analysis File Meta-Data.xlsx
+++ b/Meta Analysis/Meta Analysis File Meta-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cld74/Dropbox/Academic/Professional Institutions/Previous Institutions/Michigan State University/Collaborative Research Group/Final Project Code/Peer Review/Meta Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cld74/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7202B323-BC58-014E-9466-A9566142F0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3573E06-5589-724A-9299-79CE2C27FF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36260" yWindow="-200" windowWidth="28040" windowHeight="16300" xr2:uid="{6C933A80-9FDE-4D4F-BB96-AF47916D087A}"/>
+    <workbookView xWindow="1400" yWindow="760" windowWidth="28040" windowHeight="16300" xr2:uid="{6C933A80-9FDE-4D4F-BB96-AF47916D087A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,9 +515,6 @@
     <t>Stage </t>
   </si>
   <si>
-    <t>Peer review stage: see Supplementary Table 2 and Supplementary Fig. 1 for definitions.  </t>
-  </si>
-  <si>
     <t>Study </t>
   </si>
   <si>
@@ -652,6 +649,9 @@
   </si>
   <si>
     <t>Mean year data were collected from journals for that study. Rescaled in the R code so that the earliest year across studies = 0. This was done to improve convergence.  </t>
+  </si>
+  <si>
+    <t>Peer review stage: see Supplementary Table 2 and Extended Data Fig. 1 for definitions.  </t>
   </si>
 </sst>
 </file>
@@ -933,9 +933,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -945,13 +942,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -965,15 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1281,7 +1281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6D0AD7-4375-C142-80AD-CF20084E6A2E}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1355,7 +1355,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1363,20 +1363,20 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" thickBot="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1405,34 +1405,34 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" ht="34">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" ht="69" thickBot="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="35" thickBot="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1517,7 +1517,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1525,38 +1525,38 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="52" thickBot="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="69" thickBot="1">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -1641,18 +1641,18 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="34">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="35" thickBot="1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="35" thickBot="1">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="51">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -1865,24 +1865,24 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" ht="34">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="51">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="35" thickBot="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="11" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="10" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1907,113 +1907,113 @@
         <v>139</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="35" thickBot="1">
       <c r="A83" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="5" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="34">
+      <c r="A84" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="34">
-      <c r="A84" s="16" t="s">
+      <c r="B84" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="7" t="s">
+    </row>
+    <row r="85" spans="1:2" ht="17">
+      <c r="A85" s="20"/>
+      <c r="B85" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17">
-      <c r="A85" s="17"/>
-      <c r="B85" s="9" t="s">
+    <row r="86" spans="1:2" ht="51">
+      <c r="A86" s="20"/>
+      <c r="B86" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="51">
-      <c r="A86" s="17"/>
-      <c r="B86" s="9" t="s">
+    <row r="87" spans="1:2" ht="35" thickBot="1">
+      <c r="A87" s="21"/>
+      <c r="B87" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="35" thickBot="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="11" t="s">
+    <row r="88" spans="1:2" ht="17">
+      <c r="A88" s="16" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="17">
-      <c r="A88" s="6" t="s">
+      <c r="B88" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="7" t="s">
+    </row>
+    <row r="89" spans="1:2" ht="17">
+      <c r="A89" s="17"/>
+      <c r="B89" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17">
-      <c r="A89" s="8"/>
-      <c r="B89" s="9" t="s">
+    <row r="90" spans="1:2" ht="17">
+      <c r="A90" s="17"/>
+      <c r="B90" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="68">
+      <c r="A91" s="17"/>
+      <c r="B91" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17">
-      <c r="A90" s="8"/>
-      <c r="B90" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="68">
-      <c r="A91" s="8"/>
-      <c r="B91" s="9" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="17"/>
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="1:2" ht="69" thickBot="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="10" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9"/>
-    </row>
-    <row r="93" spans="1:2" ht="69" thickBot="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="35" thickBot="1">
       <c r="A94" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="52" thickBot="1">
       <c r="A95" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="35" thickBot="1">
       <c r="A96" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B96" s="5" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="34">
+      <c r="A97" s="13" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="34">
-      <c r="A97" s="19" t="s">
+      <c r="B97" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="21"/>
+      <c r="A98" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
